--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medication-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medication-conceptmap.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T16:55:47+00:00</t>
+    <t>2025-01-07T16:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medication-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medication-conceptmap.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T16:15:18+00:00</t>
+    <t>2025-01-09T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medication-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medication-conceptmap.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T16:21:14+00:00</t>
+    <t>2025-01-11T17:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medication-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medication-conceptmap.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:10:04+00:00</t>
+    <t>2025-01-11T17:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medication-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medication-conceptmap.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:18:32+00:00</t>
+    <t>2025-01-11T17:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medication-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medication-conceptmap.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:45:34+00:00</t>
+    <t>2025-01-12T18:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
